--- a/state-chart/m6/chart/chart/0100_Flow/030_Heighlight/doc/HeighlightFlow.xlsx
+++ b/state-chart/m6/chart/chart/0100_Flow/030_Heighlight/doc/HeighlightFlow.xlsx
@@ -22,36 +22,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>state</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ステート関数</t>
     <rPh sb="4" eb="6">
       <t>カンスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>state-cmt</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>nextstate</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>次ステート</t>
     <rPh sb="0" eb="1">
       <t>ツギ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>S_NONE</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ステート関数説明</t>
@@ -61,30 +61,181 @@
     <rPh sb="6" eb="8">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>S_END</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>branch</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>branch-cmt</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>:output=ArrowFlowStateControl</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイドル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>br_if_nostate(S_NOSTATE);
+br_if_newstate(S_NEWSTATE);</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>check_st_on_point();</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステートばない時
+新ステート時</t>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ポインタ直下のステートの変化確認</t>
+    <rPh sb="4" eb="6">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認説明</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カレント設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カレント設置説明</t>
+    <rPh sb="4" eb="6">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハイライト用ピクチャボックス</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハイライト用ピクチャボックス説明</t>
+    <rPh sb="14" eb="16">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステート無し</t>
+    <rPh sb="4" eb="5">
+      <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステートあり</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カレントステート無し</t>
+    <rPh sb="8" eb="9">
+      <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カレントステートを更新</t>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規表示</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>heighlight</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>heighligh-cmt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:output=HeighlightFlowStateControl_created.cs
+::
+public enum HeighlightFlowState
+{
+    $contents1$
+}
+public partial class HeighlightFlowStateControl {
+    $contents2$
+}
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>heighlight</t>
     </r>
     <r>
       <rPr>
@@ -92,9 +243,16 @@
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
+      <t>_hide();</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>heighlight</t>
     </r>
     <r>
       <rPr>
@@ -102,11 +260,67 @@
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_created.cs
-::
-public enum ArrowFlowState</t>
+      <t>_show();</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>S_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IDLE</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_NOSTATE</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_NEWSTATE</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
     </r>
     <r>
       <rPr>
@@ -114,9 +328,16 @@
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
+      <t>_IDLE</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
     </r>
     <r>
       <rPr>
@@ -124,13 +345,16 @@
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 
-{
-    $contents1$
-}
-public partial class ArrowFlowStateControl</t>
+      <t>heck</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
     </r>
     <r>
       <rPr>
@@ -138,9 +362,16 @@
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
+      <t>heck-cmt</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -148,187 +379,63 @@
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> {
-    $contents2$
-}
-</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S_START</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開始</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S_OUTLINE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S_STRAIGHT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>br_straight(S_STRAIGHT);</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>直線で引けるのであれば、S_STRAIGHTへ</t>
-    <rPh sb="0" eb="2">
-      <t>チョクセン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>直線</t>
-    <rPh sb="0" eb="2">
-      <t>チョクセン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S_END</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アウトライン作成</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S_RS_BEGIN</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ルート検索開始</t>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>QRの確認</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S_RS_CALC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ポイント計算</t>
-    <rPh sb="4" eb="6">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SQの確認</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S_RS_CHK_QR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S_RS_CHK_QR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S_RS_CHK_SQ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>br_checkQR(S_RS_CALC);</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>check_QRの結果で遷移</t>
-    <rPh sb="9" eb="11">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>br_checkSQ(S_RS_CALC);</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>check_SQの結果で遷移</t>
-    <rPh sb="9" eb="11">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S_RS_CK_RG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RGの確認</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S_RS_END</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ルート検索終了</t>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>br_checkRG(S_RS_CALC);</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>check_RGの結果で遷移</t>
-    <rPh sb="9" eb="11">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+      <t>etcur</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etcur_none();</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etcur_new();</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etcur-cmt</t>
+    </r>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>/*
@@ -342,31 +449,25 @@
         if (bFirst)
         {
             SetNextState([[nextstate]]);
-            &lt;&lt;&lt;?outline
-            /*
-                [[outline-cmt]]
-            */
-            [[outline]]
-            &gt;&gt;&gt;
-            &lt;&lt;&lt;?check
-            /*
-                [[check-cmt]]
-            */
-            [[check]]
-            &gt;&gt;&gt;
-            &lt;&lt;&lt;?point
-            /*
-                [[point-cmt]]
-            */
-            [[point]]
-            &gt;&gt;&gt;
-            &lt;&lt;&lt;?setdiff
-            /*
-                [[setdiff-cmt]]
-            */
-            [[setdiff]]
-            &gt;&gt;&gt;
         }
+        &lt;&lt;&lt;?check
+        /*
+            [[check-cmt]]
+        */
+        [[check]]
+        &gt;&gt;&gt;
+        &lt;&lt;&lt;?setcur
+        /*
+            [[setcur-cmt]]
+        */
+        [[setcur]]
+        &gt;&gt;&gt;
+        &lt;&lt;&lt;?heighlight
+        /*
+            [[heighlight-cmt]]
+        */
+        [[heighlight]]
+        &gt;&gt;&gt;
         &lt;&lt;&lt;?branch
         /*
             [[branch-cmt]]
@@ -379,23 +480,27 @@
         }
     }
 }</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S_RS_BEGIN</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,15 +534,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Yu Gothic"/>
@@ -453,12 +549,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,7 +588,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,11 +598,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
@@ -521,7 +618,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -664,118 +761,94 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="20% - アクセント 5" xfId="5" builtinId="46"/>
-    <cellStyle name="60% - アクセント 2" xfId="4" builtinId="36"/>
-    <cellStyle name="アクセント 1" xfId="3" builtinId="29"/>
-    <cellStyle name="チェック セル" xfId="2" builtinId="23"/>
+  <cellStyles count="5">
+    <cellStyle name="20% - アクセント 5" xfId="4" builtinId="46"/>
+    <cellStyle name="60% - アクセント 2" xfId="3" builtinId="36"/>
+    <cellStyle name="アクセント 1" xfId="2" builtinId="29"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -1127,38 +1200,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:N12"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="7" width="15.625" style="8"/>
-    <col min="8" max="8" width="2" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="15.625" style="8"/>
+    <col min="1" max="16384" width="15.625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="144.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" spans="1:9" ht="144.75" customHeight="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -1170,41 +1234,20 @@
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -1214,352 +1257,246 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="55.5" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="G10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" ht="60.75" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="75">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="38.25" thickBot="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" ht="38.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="20"/>
-    </row>
-    <row r="6" spans="1:16" ht="38.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" ht="38.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="20"/>
-    </row>
-    <row r="8" spans="1:16" ht="38.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="20"/>
-    </row>
-    <row r="9" spans="1:16" ht="38.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="20"/>
-    </row>
-    <row r="10" spans="1:16" ht="38.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="20"/>
-    </row>
-    <row r="11" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="20"/>
-    </row>
-    <row r="12" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="20"/>
-    </row>
-    <row r="13" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="20"/>
-    </row>
-    <row r="14" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" ht="60.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="20"/>
-    </row>
-    <row r="17" spans="1:16" ht="39" thickTop="1" thickBot="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="24"/>
-    </row>
-    <row r="18" spans="1:16" ht="57.75" thickTop="1" thickBot="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1574,8 +1511,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
   <sheetData/>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1591,11 +1531,11 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1613,11 +1553,11 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>